--- a/Excel/Excel_Report.xlsx
+++ b/Excel/Excel_Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\Bitvice\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\ICONS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B018C9-2BF6-4BDE-ACC3-90F1B83796E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1B453F-EA9D-4482-9069-0C6796511CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3735" yWindow="1365" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
     <t>2021 R1</t>
   </si>
   <si>
-    <t>SIMATM</t>
+    <t>ICONS</t>
   </si>
 </sst>
 </file>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
